--- a/Buff/SkillTemplate.xlsx
+++ b/Buff/SkillTemplate.xlsx
@@ -45,26 +45,8 @@
     </r>
   </si>
   <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>攻击CD</t>
-  </si>
-  <si>
-    <t>攻击动作</t>
-  </si>
-  <si>
-    <t>攻击特效</t>
-  </si>
-  <si>
-    <t>添加效果</t>
-  </si>
-  <si>
     <t>目标
-1 有攻击对象
+1 有目标释放
 2 不限制</t>
   </si>
   <si>
@@ -73,12 +55,36 @@
 2 魔法伤害</t>
   </si>
   <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>攻击CD</t>
+  </si>
+  <si>
+    <t>攻击动作</t>
+  </si>
+  <si>
+    <t>攻击特效</t>
+  </si>
+  <si>
+    <t>添加效果</t>
+  </si>
+  <si>
     <t>sn</t>
   </si>
   <si>
     <t>camp</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>damageType</t>
+  </si>
+  <si>
     <t>attackPower</t>
   </si>
   <si>
@@ -95,12 +101,6 @@
   </si>
   <si>
     <t>buff</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>damageType</t>
   </si>
   <si>
     <t>int</t>
@@ -140,7 +140,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +153,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -615,48 +608,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,97 +662,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -767,7 +760,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1117,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1128,16 +1121,16 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:12">
+    <row r="1" ht="57" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,10 +1140,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1159,20 +1152,20 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,14 +1190,14 @@
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1215,28 +1208,28 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1244,13 +1237,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -1259,16 +1252,16 @@
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>50101</v>
       </c>
@@ -1276,25 +1269,28 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>50102</v>
       </c>
@@ -1302,25 +1298,28 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>1.5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>50103</v>
       </c>
@@ -1328,25 +1327,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>1001</v>
       </c>
@@ -1354,25 +1356,28 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>50</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>2001</v>
       </c>
@@ -1380,25 +1385,28 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>100</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>1.5</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>3001</v>
       </c>
@@ -1406,25 +1414,28 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>150</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1435,18 +1446,21 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>9</v>
       </c>
     </row>
